--- a/data/trans_orig/P29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755EAE37-7BF6-41E8-8ACD-1B35D84FD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D634DC24-F25A-4D80-A908-3553630711DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F343070E-8626-4C5C-B4D3-AC511F59803B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6171DB-6643-4538-84CD-5544D05275B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="609">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,1834 +107,1765 @@
     <t>20,99%</t>
   </si>
   <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>56,98%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>43,41%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1955E9F1-0816-4CEA-9121-DF04CD2BC8C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0F3EA-844E-434D-9EAA-44FA2590C98C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2763,7 +2694,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2709,13 @@
         <v>367238</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -2793,10 +2724,10 @@
         <v>151323</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>64</v>
@@ -2939,7 +2870,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -2948,13 +2879,13 @@
         <v>177512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -2963,13 +2894,13 @@
         <v>332737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2915,13 @@
         <v>581899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -2999,13 +2930,13 @@
         <v>279511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>806</v>
@@ -3014,13 +2945,13 @@
         <v>861409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3088,13 +3019,13 @@
         <v>215291</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>380</v>
@@ -3103,13 +3034,13 @@
         <v>380363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -3118,13 +3049,13 @@
         <v>595654</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3070,13 @@
         <v>132180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -3154,13 +3085,13 @@
         <v>173129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>309</v>
@@ -3169,13 +3100,13 @@
         <v>305310</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3121,13 @@
         <v>331037</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -3205,13 +3136,13 @@
         <v>130349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>453</v>
@@ -3220,13 +3151,13 @@
         <v>461386</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3213,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3294,13 +3225,13 @@
         <v>265953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -3309,13 +3240,13 @@
         <v>546495</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>797</v>
@@ -3324,10 +3255,10 @@
         <v>812447</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>132</v>
@@ -3515,13 +3446,13 @@
         <v>1786962</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>2547</v>
@@ -3530,13 +3461,13 @@
         <v>2640514</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3482,7 @@
         <v>542088</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>160</v>
@@ -3569,10 +3500,10 @@
         <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1243</v>
@@ -3581,13 +3512,13 @@
         <v>1238802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3533,13 @@
         <v>1880904</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>875</v>
@@ -3617,28 +3548,28 @@
         <v>895521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>2721</v>
       </c>
       <c r="N26" s="7">
-        <v>2776424</v>
+        <v>2776425</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3611,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3694,7 +3625,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E9A4A-CEF5-4119-988B-ACD1BE3B88D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC151C-C82A-4413-AEBD-548A3659712E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3732,7 +3663,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3839,13 +3770,13 @@
         <v>31914</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -3854,13 +3785,13 @@
         <v>58363</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3869,13 +3800,13 @@
         <v>90277</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3821,13 @@
         <v>18334</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3905,13 +3836,13 @@
         <v>24435</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3920,13 +3851,13 @@
         <v>42769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3872,13 @@
         <v>65517</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3956,13 +3887,13 @@
         <v>29107</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -3971,13 +3902,13 @@
         <v>94623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +3976,13 @@
         <v>148206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>338</v>
@@ -4060,13 +3991,13 @@
         <v>360518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>477</v>
@@ -4075,13 +4006,13 @@
         <v>508724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4027,13 @@
         <v>76887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -4111,13 +4042,13 @@
         <v>77294</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -4126,13 +4057,13 @@
         <v>154181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4078,13 @@
         <v>362611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4162,13 +4093,13 @@
         <v>147333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>478</v>
@@ -4177,13 +4108,13 @@
         <v>509944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4182,13 @@
         <v>285817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>547</v>
@@ -4266,13 +4197,13 @@
         <v>602094</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>808</v>
@@ -4281,13 +4212,13 @@
         <v>887912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4233,13 @@
         <v>136686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4317,13 +4248,13 @@
         <v>132565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4332,13 +4263,13 @@
         <v>269251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4284,13 @@
         <v>595444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>272</v>
@@ -4368,13 +4299,13 @@
         <v>297525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -4383,13 +4314,13 @@
         <v>892969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4376,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4457,13 +4388,13 @@
         <v>207567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -4472,13 +4403,13 @@
         <v>444219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>592</v>
@@ -4487,13 +4418,13 @@
         <v>651787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4439,13 @@
         <v>89442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4523,13 +4454,13 @@
         <v>123211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4538,13 +4469,13 @@
         <v>212653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4490,13 @@
         <v>460614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H18" s="7">
         <v>183</v>
@@ -4574,13 +4505,13 @@
         <v>208742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>604</v>
@@ -4589,13 +4520,13 @@
         <v>669357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,7 +4582,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4663,13 +4594,13 @@
         <v>270218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4678,13 +4609,13 @@
         <v>560425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -4693,13 +4624,13 @@
         <v>830643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4645,13 @@
         <v>117141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4729,13 +4660,13 @@
         <v>119278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M21" s="7">
         <v>230</v>
@@ -4744,13 +4675,13 @@
         <v>236419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4696,13 @@
         <v>560381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>349</v>
@@ -4780,13 +4711,13 @@
         <v>371231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -4795,13 +4726,13 @@
         <v>931612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4800,13 @@
         <v>943722</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H24" s="7">
         <v>1878</v>
@@ -4884,13 +4815,13 @@
         <v>2025620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>2750</v>
@@ -4899,13 +4830,13 @@
         <v>2969342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4851,13 @@
         <v>438489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>450</v>
@@ -4935,13 +4866,13 @@
         <v>476784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>864</v>
@@ -4950,13 +4881,13 @@
         <v>915273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4902,13 @@
         <v>2044567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>968</v>
@@ -4986,13 +4917,13 @@
         <v>1053937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>2891</v>
@@ -5001,13 +4932,13 @@
         <v>3098505</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +4994,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5084,7 +5015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDB8894-B0E1-4636-B89D-13DA232633D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBF37D-C3CF-48A2-BA04-0E6DAA9EE931}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,7 +5032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,13 +5139,13 @@
         <v>6449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5223,13 +5154,13 @@
         <v>24741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5238,13 +5169,13 @@
         <v>31190</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5190,13 @@
         <v>24881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5274,13 +5205,13 @@
         <v>53257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -5289,13 +5220,13 @@
         <v>78138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5241,13 @@
         <v>85216</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -5325,13 +5256,13 @@
         <v>35362</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M6" s="7">
         <v>120</v>
@@ -5340,13 +5271,13 @@
         <v>120577</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5345,13 @@
         <v>59031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -5429,13 +5360,13 @@
         <v>212983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>262</v>
@@ -5444,13 +5375,13 @@
         <v>272014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5396,13 @@
         <v>154708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H9" s="7">
         <v>192</v>
@@ -5480,13 +5411,13 @@
         <v>196333</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M9" s="7">
         <v>345</v>
@@ -5495,13 +5426,13 @@
         <v>351041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5447,13 @@
         <v>344515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -5531,13 +5462,13 @@
         <v>150163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -5546,13 +5477,13 @@
         <v>494678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5551,13 @@
         <v>133764</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H12" s="7">
         <v>275</v>
@@ -5635,13 +5566,13 @@
         <v>303055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -5650,13 +5581,13 @@
         <v>436819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5602,13 @@
         <v>313143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>391</v>
@@ -5686,13 +5617,13 @@
         <v>413549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -5701,13 +5632,13 @@
         <v>726692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5653,13 @@
         <v>575524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -5737,13 +5668,13 @@
         <v>324147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>841</v>
@@ -5752,13 +5683,13 @@
         <v>899671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,7 +5745,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5826,13 +5757,13 @@
         <v>125777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
@@ -5841,13 +5772,13 @@
         <v>280609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -5856,13 +5787,13 @@
         <v>406385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5808,13 @@
         <v>207088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5892,13 +5823,13 @@
         <v>268827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -5907,13 +5838,13 @@
         <v>475915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5859,13 @@
         <v>426687</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -5943,13 +5874,13 @@
         <v>234487</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>609</v>
@@ -5958,13 +5889,13 @@
         <v>661174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +5951,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6032,13 +5963,13 @@
         <v>106487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -6047,13 +5978,13 @@
         <v>300543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -6062,13 +5993,13 @@
         <v>407030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6014,13 @@
         <v>253694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H21" s="7">
         <v>313</v>
@@ -6098,13 +6029,13 @@
         <v>330987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M21" s="7">
         <v>573</v>
@@ -6113,13 +6044,13 @@
         <v>584681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6065,13 @@
         <v>575328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
@@ -6149,13 +6080,13 @@
         <v>408971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>948</v>
@@ -6164,13 +6095,13 @@
         <v>984300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6169,13 @@
         <v>431508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>316</v>
+        <v>454</v>
       </c>
       <c r="H24" s="7">
         <v>1023</v>
@@ -6253,13 +6184,13 @@
         <v>1121931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -6268,13 +6199,13 @@
         <v>1553439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6220,13 @@
         <v>953515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>1207</v>
@@ -6304,13 +6235,13 @@
         <v>1262953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>2138</v>
@@ -6319,13 +6250,13 @@
         <v>2216468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6271,13 @@
         <v>2007270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>1102</v>
@@ -6355,13 +6286,13 @@
         <v>1153130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>3001</v>
@@ -6370,13 +6301,13 @@
         <v>3160400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,7 +6363,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +6384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F2D12-68A5-4F2A-B4EE-B7FDCA7F5E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9B8CA-4A6A-4332-A4ED-B6E0A3CEA750}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6470,7 +6401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6577,13 +6508,13 @@
         <v>24344</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -6592,13 +6523,13 @@
         <v>61768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -6607,13 +6538,13 @@
         <v>86112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6559,13 @@
         <v>23255</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -6643,13 +6574,13 @@
         <v>35638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -6658,13 +6589,13 @@
         <v>58893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6610,13 @@
         <v>53306</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H6" s="7">
         <v>53</v>
@@ -6694,13 +6625,13 @@
         <v>33328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -6709,13 +6640,13 @@
         <v>86633</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6714,13 @@
         <v>80595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -6798,13 +6729,13 @@
         <v>201995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>491</v>
@@ -6813,13 +6744,13 @@
         <v>282591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,13 +6765,13 @@
         <v>149093</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H9" s="7">
         <v>343</v>
@@ -6849,13 +6780,13 @@
         <v>208338</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M9" s="7">
         <v>512</v>
@@ -6864,13 +6795,13 @@
         <v>357431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>522</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,13 +6816,13 @@
         <v>319324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -6900,13 +6831,13 @@
         <v>181999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>603</v>
@@ -6915,13 +6846,13 @@
         <v>501323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6920,13 @@
         <v>136088</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -7004,13 +6935,13 @@
         <v>296035</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M12" s="7">
         <v>643</v>
@@ -7022,10 +6953,10 @@
         <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +6971,13 @@
         <v>261924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>532</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H13" s="7">
         <v>583</v>
@@ -7055,13 +6986,13 @@
         <v>410345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -7070,13 +7001,13 @@
         <v>672268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7022,13 @@
         <v>640096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -7106,13 +7037,13 @@
         <v>351403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>551</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>990</v>
@@ -7121,13 +7052,13 @@
         <v>991499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,7 +7114,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7195,13 +7126,13 @@
         <v>111126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="H16" s="7">
         <v>354</v>
@@ -7210,13 +7141,13 @@
         <v>236947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>559</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -7225,13 +7156,13 @@
         <v>348074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7177,13 @@
         <v>205519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>565</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -7261,13 +7192,13 @@
         <v>246859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>515</v>
@@ -7276,13 +7207,13 @@
         <v>452379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7228,13 @@
         <v>409634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>561</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H18" s="7">
         <v>358</v>
@@ -7312,13 +7243,13 @@
         <v>387805</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
         <v>726</v>
@@ -7327,13 +7258,13 @@
         <v>797440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>579</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,7 +7320,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7401,13 +7332,13 @@
         <v>174810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>510</v>
@@ -7416,13 +7347,13 @@
         <v>349822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>688</v>
@@ -7431,13 +7362,13 @@
         <v>524632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7383,13 @@
         <v>226301</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>591</v>
+        <v>71</v>
       </c>
       <c r="H21" s="7">
         <v>458</v>
@@ -7467,13 +7398,13 @@
         <v>338872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>593</v>
+        <v>421</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>594</v>
+        <v>406</v>
       </c>
       <c r="M21" s="7">
         <v>702</v>
@@ -7482,13 +7413,13 @@
         <v>565173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7434,13 @@
         <v>563167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -7518,13 +7449,13 @@
         <v>456229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -7533,13 +7464,13 @@
         <v>1019395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7538,13 @@
         <v>526964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="H24" s="7">
         <v>1845</v>
@@ -7622,13 +7553,13 @@
         <v>1146567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>2450</v>
@@ -7637,13 +7568,13 @@
         <v>1673530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>613</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7589,13 @@
         <v>866093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="H25" s="7">
         <v>1783</v>
@@ -7673,13 +7604,13 @@
         <v>1240052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>619</v>
+        <v>473</v>
       </c>
       <c r="M25" s="7">
         <v>2666</v>
@@ -7688,13 +7619,13 @@
         <v>2106145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>622</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,13 +7640,13 @@
         <v>1985527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>625</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>1725</v>
@@ -7724,13 +7655,13 @@
         <v>1410764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>3606</v>
@@ -7739,13 +7670,13 @@
         <v>3396291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,7 +7732,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D634DC24-F25A-4D80-A908-3553630711DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F942A11-7488-435D-BD04-EAFC0D369EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB6171DB-6643-4538-84CD-5544D05275B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9560C227-F196-45EA-B04B-D638C36365F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="627">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No, no consume bebidas alcohólicas</t>
@@ -77,1783 +77,1837 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>9,64%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>No, menos de una vez al mes</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>No, menos de una vez al mes</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>26,53%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>37,15%</t>
   </si>
   <si>
     <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
   </si>
   <si>
     <t>43,41%</t>
@@ -2277,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0F3EA-844E-434D-9EAA-44FA2590C98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464031D0-719F-461B-BDD7-0D6CA900FD9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2694,7 +2748,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2763,13 @@
         <v>367238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -2724,13 +2778,13 @@
         <v>151323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>514</v>
@@ -2739,13 +2793,13 @@
         <v>518560</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2855,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2813,13 +2867,13 @@
         <v>224676</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>472</v>
@@ -2828,13 +2882,13 @@
         <v>511371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>678</v>
@@ -2843,13 +2897,13 @@
         <v>736046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2918,13 @@
         <v>155226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -2879,7 +2933,7 @@
         <v>177512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>82</v>
@@ -3037,10 +3091,10 @@
         <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>575</v>
@@ -3049,13 +3103,13 @@
         <v>595654</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3124,13 @@
         <v>132180</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -3085,13 +3139,13 @@
         <v>173129</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>309</v>
@@ -3100,13 +3154,13 @@
         <v>305310</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3175,13 @@
         <v>331037</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -3136,13 +3190,13 @@
         <v>130349</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>453</v>
@@ -3151,13 +3205,13 @@
         <v>461386</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,7 +3267,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3225,13 +3279,13 @@
         <v>265953</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -3240,13 +3294,13 @@
         <v>546495</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>797</v>
@@ -3255,10 +3309,10 @@
         <v>812447</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>132</v>
@@ -3431,13 +3485,13 @@
         <v>853552</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>1720</v>
@@ -3446,7 +3500,7 @@
         <v>1786962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>154</v>
@@ -3479,7 +3533,7 @@
         <v>541</v>
       </c>
       <c r="D25" s="7">
-        <v>542088</v>
+        <v>542087</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>159</v>
@@ -3497,13 +3551,13 @@
         <v>696715</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1243</v>
@@ -3512,13 +3566,13 @@
         <v>1238802</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3587,13 @@
         <v>1880904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>875</v>
@@ -3548,13 +3602,13 @@
         <v>895521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>2721</v>
@@ -3563,13 +3617,13 @@
         <v>2776425</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3635,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3625,7 +3679,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC151C-C82A-4413-AEBD-548A3659712E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F232D47B-A344-42CB-B7B9-54EA0E28AEFD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3663,7 +3717,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3770,13 +3824,13 @@
         <v>31914</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -3785,13 +3839,13 @@
         <v>58363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3800,13 +3854,13 @@
         <v>90277</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3875,13 @@
         <v>18334</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3836,13 +3890,13 @@
         <v>24435</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3851,13 +3905,13 @@
         <v>42769</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3926,13 @@
         <v>65517</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3887,13 +3941,13 @@
         <v>29107</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -3902,13 +3956,13 @@
         <v>94623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4030,13 @@
         <v>148206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>338</v>
@@ -3991,13 +4045,13 @@
         <v>360518</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>477</v>
@@ -4006,13 +4060,13 @@
         <v>508724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4081,13 @@
         <v>76887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -4042,13 +4096,13 @@
         <v>77294</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -4057,13 +4111,13 @@
         <v>154181</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4132,13 @@
         <v>362611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4093,13 +4147,13 @@
         <v>147333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>478</v>
@@ -4108,13 +4162,13 @@
         <v>509944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,7 +4224,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4182,13 +4236,13 @@
         <v>285817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>547</v>
@@ -4197,13 +4251,13 @@
         <v>602094</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>808</v>
@@ -4212,13 +4266,13 @@
         <v>887912</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4287,13 @@
         <v>136686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4248,13 +4302,13 @@
         <v>132565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4263,13 +4317,13 @@
         <v>269251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4338,13 @@
         <v>595444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>272</v>
@@ -4299,13 +4353,13 @@
         <v>297525</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -4314,13 +4368,13 @@
         <v>892969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4442,13 @@
         <v>207567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -4403,13 +4457,13 @@
         <v>444219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>592</v>
@@ -4418,13 +4472,13 @@
         <v>651787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4493,13 @@
         <v>89442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4454,13 +4508,13 @@
         <v>123211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4469,13 +4523,13 @@
         <v>212653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4544,13 @@
         <v>460614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>183</v>
@@ -4505,13 +4559,13 @@
         <v>208742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>604</v>
@@ -4520,13 +4574,13 @@
         <v>669357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4636,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4594,13 +4648,13 @@
         <v>270218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4609,13 +4663,13 @@
         <v>560425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -4624,13 +4678,13 @@
         <v>830643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4699,13 @@
         <v>117141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4660,13 +4714,13 @@
         <v>119278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>230</v>
@@ -4675,13 +4729,13 @@
         <v>236419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4750,13 @@
         <v>560381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>349</v>
@@ -4711,13 +4765,13 @@
         <v>371231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -4726,13 +4780,13 @@
         <v>931612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4854,13 @@
         <v>943722</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>1878</v>
@@ -4815,13 +4869,13 @@
         <v>2025620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>2750</v>
@@ -4830,13 +4884,13 @@
         <v>2969342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4905,13 @@
         <v>438489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>450</v>
@@ -4866,13 +4920,13 @@
         <v>476784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>864</v>
@@ -4881,13 +4935,13 @@
         <v>915273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4956,13 @@
         <v>2044567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H26" s="7">
         <v>968</v>
@@ -4917,13 +4971,13 @@
         <v>1053937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7">
         <v>2891</v>
@@ -4932,13 +4986,13 @@
         <v>3098505</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,7 +5048,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBF37D-C3CF-48A2-BA04-0E6DAA9EE931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533254A7-76E5-409C-8253-E2D0646F33B3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5032,7 +5086,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5139,13 +5193,13 @@
         <v>6449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5154,13 +5208,13 @@
         <v>24741</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5169,13 +5223,13 @@
         <v>31190</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5244,13 @@
         <v>24881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5205,13 +5259,13 @@
         <v>53257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -5220,13 +5274,13 @@
         <v>78138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5295,13 @@
         <v>85216</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -5256,13 +5310,13 @@
         <v>35362</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>120</v>
@@ -5271,13 +5325,13 @@
         <v>120577</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5399,13 @@
         <v>59031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -5360,13 +5414,13 @@
         <v>212983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>262</v>
@@ -5375,13 +5429,13 @@
         <v>272014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5450,13 @@
         <v>154708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H9" s="7">
         <v>192</v>
@@ -5411,13 +5465,13 @@
         <v>196333</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>345</v>
@@ -5426,13 +5480,13 @@
         <v>351041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5501,13 @@
         <v>344515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -5462,13 +5516,13 @@
         <v>150163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -5477,13 +5531,13 @@
         <v>494678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5593,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5605,13 @@
         <v>133764</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>275</v>
@@ -5566,13 +5620,13 @@
         <v>303055</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -5581,13 +5635,13 @@
         <v>436819</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5656,13 @@
         <v>313143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>391</v>
@@ -5617,13 +5671,13 @@
         <v>413549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -5632,13 +5686,13 @@
         <v>726692</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5707,13 @@
         <v>575524</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -5668,13 +5722,13 @@
         <v>324147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>841</v>
@@ -5683,13 +5737,13 @@
         <v>899671</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5811,13 @@
         <v>125777</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
@@ -5772,13 +5826,13 @@
         <v>280609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -5787,13 +5841,13 @@
         <v>406385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5862,13 @@
         <v>207088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -5823,13 +5877,13 @@
         <v>268827</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -5838,13 +5892,13 @@
         <v>475915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>23</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5913,13 @@
         <v>426687</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -5874,13 +5928,13 @@
         <v>234487</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>609</v>
@@ -5889,13 +5943,13 @@
         <v>661174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +6005,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5963,13 +6017,13 @@
         <v>106487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>426</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -5978,13 +6032,13 @@
         <v>300543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>440</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -5993,13 +6047,13 @@
         <v>407030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6068,13 @@
         <v>253694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H21" s="7">
         <v>313</v>
@@ -6029,13 +6083,13 @@
         <v>330987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="M21" s="7">
         <v>573</v>
@@ -6044,13 +6098,13 @@
         <v>584681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6119,13 @@
         <v>575328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
@@ -6080,13 +6134,13 @@
         <v>408971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M22" s="7">
         <v>948</v>
@@ -6095,13 +6149,13 @@
         <v>984300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6223,13 @@
         <v>431508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>1023</v>
@@ -6184,13 +6238,13 @@
         <v>1121931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -6199,13 +6253,13 @@
         <v>1553439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6274,13 @@
         <v>953515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>1207</v>
@@ -6235,13 +6289,13 @@
         <v>1262953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>2138</v>
@@ -6250,13 +6304,13 @@
         <v>2216468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6325,13 @@
         <v>2007270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>1102</v>
@@ -6286,13 +6340,13 @@
         <v>1153130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="M26" s="7">
         <v>3001</v>
@@ -6301,13 +6355,13 @@
         <v>3160400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6417,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9B8CA-4A6A-4332-A4ED-B6E0A3CEA750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9471923D-EF81-4CAE-B01E-C167B046DEC1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6401,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6508,13 +6562,13 @@
         <v>24344</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -6523,10 +6577,10 @@
         <v>61768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>155</v>
@@ -6538,13 +6592,13 @@
         <v>86112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6613,13 @@
         <v>23255</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -6574,13 +6628,13 @@
         <v>35638</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -6589,13 +6643,13 @@
         <v>58893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6664,13 @@
         <v>53306</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="H6" s="7">
         <v>53</v>
@@ -6625,13 +6679,13 @@
         <v>33328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -6640,13 +6694,13 @@
         <v>86633</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6768,13 @@
         <v>80595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -6729,13 +6783,13 @@
         <v>201995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>491</v>
@@ -6744,13 +6798,13 @@
         <v>282591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6819,13 @@
         <v>149093</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H9" s="7">
         <v>343</v>
@@ -6780,13 +6834,13 @@
         <v>208338</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M9" s="7">
         <v>512</v>
@@ -6795,13 +6849,13 @@
         <v>357431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6870,13 @@
         <v>319324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -6831,13 +6885,13 @@
         <v>181999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="M10" s="7">
         <v>603</v>
@@ -6846,13 +6900,13 @@
         <v>501323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,7 +6962,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6920,13 +6974,13 @@
         <v>136088</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -6935,13 +6989,13 @@
         <v>296035</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M12" s="7">
         <v>643</v>
@@ -6950,13 +7004,13 @@
         <v>432122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>541</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +7025,13 @@
         <v>261924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H13" s="7">
         <v>583</v>
@@ -6986,13 +7040,13 @@
         <v>410345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -7001,13 +7055,13 @@
         <v>672268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7076,13 @@
         <v>640096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -7037,13 +7091,13 @@
         <v>351403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>990</v>
@@ -7052,13 +7106,13 @@
         <v>991499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7180,13 @@
         <v>111126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>354</v>
@@ -7141,13 +7195,13 @@
         <v>236947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -7156,13 +7210,13 @@
         <v>348074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7231,13 @@
         <v>205519</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -7192,13 +7246,13 @@
         <v>246859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>515</v>
@@ -7207,13 +7261,13 @@
         <v>452379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7282,13 @@
         <v>409634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>358</v>
@@ -7243,13 +7297,13 @@
         <v>387805</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>726</v>
@@ -7258,13 +7312,13 @@
         <v>797440</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7320,7 +7374,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7332,13 +7386,13 @@
         <v>174810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>510</v>
@@ -7347,13 +7401,13 @@
         <v>349822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>688</v>
@@ -7362,13 +7416,13 @@
         <v>524632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7437,13 @@
         <v>226301</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>589</v>
       </c>
       <c r="H21" s="7">
         <v>458</v>
@@ -7398,13 +7452,13 @@
         <v>338872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>421</v>
+        <v>591</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>406</v>
+        <v>592</v>
       </c>
       <c r="M21" s="7">
         <v>702</v>
@@ -7413,13 +7467,13 @@
         <v>565173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7488,13 @@
         <v>563167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -7449,13 +7503,13 @@
         <v>456229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -7464,13 +7518,13 @@
         <v>1019395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7592,13 @@
         <v>526964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="H24" s="7">
         <v>1845</v>
@@ -7553,13 +7607,13 @@
         <v>1146567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>2450</v>
@@ -7568,13 +7622,13 @@
         <v>1673530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,13 +7643,13 @@
         <v>866093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>1783</v>
@@ -7604,13 +7658,13 @@
         <v>1240052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="M25" s="7">
         <v>2666</v>
@@ -7619,13 +7673,13 @@
         <v>2106145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7694,13 @@
         <v>1985527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>620</v>
       </c>
       <c r="H26" s="7">
         <v>1725</v>
@@ -7655,13 +7709,13 @@
         <v>1410764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>622</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="M26" s="7">
         <v>3606</v>
@@ -7670,13 +7724,13 @@
         <v>3396291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,7 +7786,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F942A11-7488-435D-BD04-EAFC0D369EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{981CE593-37D2-41DD-8F47-C716A8A51F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9560C227-F196-45EA-B04B-D638C36365F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C394CF66-9E08-4372-BA1E-10285E292744}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="632">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>48,99%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>32,57%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
@@ -107,1819 +107,1834 @@
     <t>20,99%</t>
   </si>
   <si>
-    <t>14,6%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
     <t>56,4%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>60,4%</t>
   </si>
   <si>
     <t>44,49%</t>
   </si>
   <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>49,91%</t>
   </si>
   <si>
-    <t>60,86%</t>
+    <t>62,2%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>33,49%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>26,73%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>24,77%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>39,85%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>36,94%</t>
   </si>
   <si>
     <t>48,33%</t>
   </si>
   <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
   </si>
   <si>
     <t>25,63%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>27,76%</t>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>47,33%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464031D0-719F-461B-BDD7-0D6CA900FD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8839FD7-39E8-4669-B2FC-6FE56D61C77A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2781,10 +2796,10 @@
         <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>514</v>
@@ -2793,13 +2808,13 @@
         <v>518560</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2870,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2867,13 +2882,13 @@
         <v>224676</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>472</v>
@@ -2882,13 +2897,13 @@
         <v>511371</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>678</v>
@@ -2897,13 +2912,13 @@
         <v>736046</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2933,13 @@
         <v>155226</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>173</v>
@@ -2933,13 +2948,13 @@
         <v>177512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -2948,13 +2963,13 @@
         <v>332737</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2984,13 @@
         <v>581899</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>263</v>
@@ -2984,13 +2999,13 @@
         <v>279511</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>806</v>
@@ -2999,13 +3014,13 @@
         <v>861409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3073,13 +3088,13 @@
         <v>215291</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>380</v>
@@ -3088,10 +3103,10 @@
         <v>380363</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>101</v>
@@ -3485,13 +3500,13 @@
         <v>853552</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>1720</v>
@@ -3500,13 +3515,13 @@
         <v>1786962</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>2547</v>
@@ -3515,13 +3530,13 @@
         <v>2640514</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,10 +3548,10 @@
         <v>541</v>
       </c>
       <c r="D25" s="7">
-        <v>542087</v>
+        <v>542088</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>160</v>
@@ -3551,10 +3566,10 @@
         <v>696715</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>163</v>
@@ -3602,28 +3617,28 @@
         <v>895521</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>2721</v>
       </c>
       <c r="N26" s="7">
-        <v>2776425</v>
+        <v>2776424</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3650,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3665,7 +3680,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3679,7 +3694,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3700,7 +3715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F232D47B-A344-42CB-B7B9-54EA0E28AEFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD88658C-BBE5-4E35-8163-9A9C554CF796}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3717,7 +3732,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3824,13 +3839,13 @@
         <v>31914</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>52</v>
@@ -3839,13 +3854,13 @@
         <v>58363</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -3854,13 +3869,13 @@
         <v>90277</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3890,13 @@
         <v>18334</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -3890,13 +3905,13 @@
         <v>24435</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3905,13 +3920,13 @@
         <v>42769</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3941,13 @@
         <v>65517</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3941,13 +3956,13 @@
         <v>29107</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>96</v>
@@ -3956,13 +3971,13 @@
         <v>94623</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4045,13 @@
         <v>148206</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>338</v>
@@ -4045,13 +4060,13 @@
         <v>360518</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>477</v>
@@ -4060,13 +4075,13 @@
         <v>508724</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4096,13 @@
         <v>76887</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -4096,13 +4111,13 @@
         <v>77294</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -4111,13 +4126,13 @@
         <v>154181</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4147,13 @@
         <v>362611</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4147,13 +4162,13 @@
         <v>147333</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>478</v>
@@ -4162,13 +4177,13 @@
         <v>509944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4239,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4236,13 +4251,13 @@
         <v>285817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H12" s="7">
         <v>547</v>
@@ -4251,13 +4266,13 @@
         <v>602094</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M12" s="7">
         <v>808</v>
@@ -4266,13 +4281,13 @@
         <v>887912</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4302,13 @@
         <v>136686</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4302,13 +4317,13 @@
         <v>132565</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4317,13 +4332,13 @@
         <v>269251</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4353,13 @@
         <v>595444</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>272</v>
@@ -4353,13 +4368,13 @@
         <v>297525</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>822</v>
@@ -4368,13 +4383,13 @@
         <v>892969</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,7 +4445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4442,13 +4457,13 @@
         <v>207567</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -4457,13 +4472,13 @@
         <v>444219</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M16" s="7">
         <v>592</v>
@@ -4472,13 +4487,13 @@
         <v>651787</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4508,13 @@
         <v>89442</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>116</v>
@@ -4508,13 +4523,13 @@
         <v>123211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4523,13 +4538,13 @@
         <v>212653</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4559,13 @@
         <v>460614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>183</v>
@@ -4559,13 +4574,13 @@
         <v>208742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>604</v>
@@ -4574,13 +4589,13 @@
         <v>669357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4663,13 @@
         <v>270218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4663,13 +4678,13 @@
         <v>560425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>791</v>
@@ -4678,13 +4693,13 @@
         <v>830643</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4714,13 @@
         <v>117141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4714,13 +4729,13 @@
         <v>119278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>230</v>
@@ -4729,13 +4744,13 @@
         <v>236419</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4765,13 @@
         <v>560381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>349</v>
@@ -4765,13 +4780,13 @@
         <v>371231</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>891</v>
@@ -4780,13 +4795,13 @@
         <v>931612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4869,13 @@
         <v>943722</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H24" s="7">
         <v>1878</v>
@@ -4869,13 +4884,13 @@
         <v>2025620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>2750</v>
@@ -4884,13 +4899,13 @@
         <v>2969342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4920,13 @@
         <v>438489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>450</v>
@@ -4920,13 +4935,13 @@
         <v>476784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M25" s="7">
         <v>864</v>
@@ -4935,13 +4950,13 @@
         <v>915273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4971,13 @@
         <v>2044567</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H26" s="7">
         <v>968</v>
@@ -4971,13 +4986,13 @@
         <v>1053937</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>2891</v>
@@ -4986,13 +5001,13 @@
         <v>3098505</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5063,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533254A7-76E5-409C-8253-E2D0646F33B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BD4E86-E038-4B81-9348-604B239876D6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5086,7 +5101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5193,13 +5208,13 @@
         <v>6449</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5208,13 +5223,13 @@
         <v>24741</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5223,13 +5238,13 @@
         <v>31190</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5259,13 @@
         <v>24881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -5259,13 +5274,13 @@
         <v>53257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -5274,13 +5289,13 @@
         <v>78138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5310,13 @@
         <v>85216</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -5310,13 +5325,13 @@
         <v>35362</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>120</v>
@@ -5325,13 +5340,13 @@
         <v>120577</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5414,13 @@
         <v>59031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>205</v>
@@ -5414,13 +5429,13 @@
         <v>212983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>262</v>
@@ -5429,13 +5444,13 @@
         <v>272014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5465,13 @@
         <v>154708</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>192</v>
@@ -5465,13 +5480,13 @@
         <v>196333</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M9" s="7">
         <v>345</v>
@@ -5480,13 +5495,13 @@
         <v>351041</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>121</v>
+        <v>372</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5516,13 @@
         <v>344515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -5516,13 +5531,13 @@
         <v>150163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -5531,13 +5546,13 @@
         <v>494678</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,7 +5608,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5605,13 +5620,13 @@
         <v>133764</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H12" s="7">
         <v>275</v>
@@ -5620,13 +5635,13 @@
         <v>303055</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>396</v>
@@ -5635,13 +5650,13 @@
         <v>436819</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5671,13 @@
         <v>313143</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>391</v>
@@ -5671,13 +5686,13 @@
         <v>413549</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>689</v>
@@ -5686,13 +5701,13 @@
         <v>726692</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5722,13 @@
         <v>575524</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>309</v>
@@ -5722,13 +5737,13 @@
         <v>324147</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>841</v>
@@ -5737,13 +5752,13 @@
         <v>899671</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5814,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5811,13 +5826,13 @@
         <v>125777</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
@@ -5826,13 +5841,13 @@
         <v>280609</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
@@ -5841,10 +5856,10 @@
         <v>406385</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>417</v>
@@ -5880,10 +5895,10 @@
         <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>454</v>
@@ -5892,13 +5907,13 @@
         <v>475915</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5928,13 @@
         <v>426687</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -5928,13 +5943,13 @@
         <v>234487</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>609</v>
@@ -5943,13 +5958,13 @@
         <v>661174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6032,13 @@
         <v>106487</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -6032,13 +6047,13 @@
         <v>300543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -6047,13 +6062,13 @@
         <v>407030</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6083,13 @@
         <v>253694</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>313</v>
@@ -6083,13 +6098,13 @@
         <v>330987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M21" s="7">
         <v>573</v>
@@ -6098,13 +6113,13 @@
         <v>584681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6134,13 @@
         <v>575328</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
@@ -6134,13 +6149,13 @@
         <v>408971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>948</v>
@@ -6149,13 +6164,13 @@
         <v>984300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6238,13 @@
         <v>431508</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7">
         <v>1023</v>
@@ -6238,13 +6253,13 @@
         <v>1121931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -6253,13 +6268,13 @@
         <v>1553439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6289,13 @@
         <v>953515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>1207</v>
@@ -6289,13 +6304,13 @@
         <v>1262953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>2138</v>
@@ -6304,13 +6319,13 @@
         <v>2216468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6340,13 @@
         <v>2007270</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>16</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>1102</v>
@@ -6340,13 +6355,13 @@
         <v>1153130</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>3001</v>
@@ -6355,13 +6370,13 @@
         <v>3160400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>485</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,7 +6432,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6438,7 +6453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9471923D-EF81-4CAE-B01E-C167B046DEC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA63FDF-2384-46C9-857B-8970333625E7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6455,7 +6470,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6562,13 +6577,13 @@
         <v>24344</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>409</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -6577,13 +6592,13 @@
         <v>61768</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>487</v>
       </c>
       <c r="M4" s="7">
         <v>152</v>
@@ -6592,13 +6607,13 @@
         <v>86112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6628,13 @@
         <v>23255</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -6631,10 +6646,10 @@
         <v>418</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>93</v>
@@ -6643,13 +6658,13 @@
         <v>58893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6679,13 @@
         <v>53306</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H6" s="7">
         <v>53</v>
@@ -6679,13 +6694,13 @@
         <v>33328</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M6" s="7">
         <v>115</v>
@@ -6694,13 +6709,13 @@
         <v>86633</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>505</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6783,13 @@
         <v>80595</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
         <v>380</v>
@@ -6783,13 +6798,13 @@
         <v>201995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>491</v>
@@ -6798,13 +6813,13 @@
         <v>282591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,13 +6834,13 @@
         <v>149093</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H9" s="7">
         <v>343</v>
@@ -6834,13 +6849,13 @@
         <v>208338</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M9" s="7">
         <v>512</v>
@@ -6849,13 +6864,13 @@
         <v>357431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>120</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,13 +6885,13 @@
         <v>319324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -6885,13 +6900,13 @@
         <v>181999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M10" s="7">
         <v>603</v>
@@ -6900,13 +6915,13 @@
         <v>501323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,7 +6977,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6974,13 +6989,13 @@
         <v>136088</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H12" s="7">
         <v>478</v>
@@ -6989,13 +7004,13 @@
         <v>296035</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M12" s="7">
         <v>643</v>
@@ -7004,13 +7019,13 @@
         <v>432122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7040,13 @@
         <v>261924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>469</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>583</v>
@@ -7040,13 +7055,13 @@
         <v>410345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>542</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>844</v>
@@ -7055,13 +7070,13 @@
         <v>672268</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>545</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7091,13 @@
         <v>640096</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>453</v>
@@ -7091,13 +7106,13 @@
         <v>351403</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>990</v>
@@ -7106,13 +7121,13 @@
         <v>991499</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,7 +7183,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7180,13 +7195,13 @@
         <v>111126</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="H16" s="7">
         <v>354</v>
@@ -7195,13 +7210,13 @@
         <v>236947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M16" s="7">
         <v>476</v>
@@ -7210,13 +7225,13 @@
         <v>348074</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7246,13 @@
         <v>205519</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -7246,13 +7261,13 @@
         <v>246859</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>515</v>
@@ -7261,13 +7276,13 @@
         <v>452379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,10 +7297,10 @@
         <v>409634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>574</v>
@@ -7315,7 +7330,7 @@
         <v>578</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>579</v>
@@ -7404,10 +7419,10 @@
         <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>688</v>
@@ -7416,13 +7431,13 @@
         <v>524632</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7452,13 @@
         <v>226301</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H21" s="7">
         <v>458</v>
@@ -7452,13 +7467,13 @@
         <v>338872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M21" s="7">
         <v>702</v>
@@ -7467,13 +7482,13 @@
         <v>565173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>595</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7503,13 @@
         <v>563167</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H22" s="7">
         <v>589</v>
@@ -7503,13 +7518,13 @@
         <v>456229</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>601</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>1172</v>
@@ -7613,7 +7628,7 @@
         <v>609</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>610</v>
       </c>
       <c r="M24" s="7">
         <v>2450</v>
@@ -7622,13 +7637,13 @@
         <v>1673530</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7658,13 @@
         <v>866093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H25" s="7">
         <v>1783</v>
@@ -7658,13 +7673,13 @@
         <v>1240052</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>618</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="M25" s="7">
         <v>2666</v>
@@ -7673,13 +7688,13 @@
         <v>2106145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7709,13 @@
         <v>1985527</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>1725</v>
@@ -7709,13 +7724,13 @@
         <v>1410764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="M26" s="7">
         <v>3606</v>
@@ -7724,13 +7739,13 @@
         <v>3396291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7801,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{981CE593-37D2-41DD-8F47-C716A8A51F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2D8941-82B2-4962-80B3-17F2779145FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C394CF66-9E08-4372-BA1E-10285E292744}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{45E53876-C2E4-4181-8887-7FAD9D53E2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="530">
   <si>
     <t>Población según si consumen algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1873 +68,1567 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No, no consume bebidas alcohólicas</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>No, menos de una vez al mes</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>33,73%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>62,48%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>Población según si consumen algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>30,73%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
 </sst>
 </file>
@@ -2346,8 +2040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8839FD7-39E8-4669-B2FC-6FE56D61C77A}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879108DC-6D39-4B65-81A6-87E3E49D1743}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2464,10 +2158,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D4" s="7">
-        <v>19065</v>
+        <v>147632</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2479,10 +2173,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>349</v>
       </c>
       <c r="I4" s="7">
-        <v>55234</v>
+        <v>348734</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2494,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="N4" s="7">
-        <v>74299</v>
+        <v>496366</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2515,10 +2209,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>24212</v>
+        <v>107061</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2530,10 +2224,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>28238</v>
+        <v>159011</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2545,10 +2239,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="N5" s="7">
-        <v>52449</v>
+        <v>266072</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2566,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="D6" s="7">
-        <v>72081</v>
+        <v>439319</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2581,10 +2275,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2596,10 +2290,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>612</v>
       </c>
       <c r="N6" s="7">
-        <v>101365</v>
+        <v>619925</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2617,10 +2311,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2632,10 +2326,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2647,10 +2341,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2670,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>128567</v>
+        <v>224676</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2685,10 +2379,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>286</v>
+        <v>472</v>
       </c>
       <c r="I8" s="7">
-        <v>293500</v>
+        <v>511371</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2700,10 +2394,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>417</v>
+        <v>678</v>
       </c>
       <c r="N8" s="7">
-        <v>422067</v>
+        <v>736046</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2721,10 +2415,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D9" s="7">
-        <v>82849</v>
+        <v>155226</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2733,37 +2427,37 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
+        <v>173</v>
+      </c>
+      <c r="I9" s="7">
+        <v>177512</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7">
-        <v>131</v>
-      </c>
-      <c r="I9" s="7">
-        <v>130774</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>320</v>
+      </c>
+      <c r="N9" s="7">
+        <v>332737</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="7">
-        <v>215</v>
-      </c>
-      <c r="N9" s="7">
-        <v>213623</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,40 +2466,40 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="D10" s="7">
-        <v>367238</v>
+        <v>581899</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>263</v>
+      </c>
+      <c r="I10" s="7">
+        <v>279511</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>151</v>
-      </c>
-      <c r="I10" s="7">
-        <v>151323</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>514</v>
+        <v>806</v>
       </c>
       <c r="N10" s="7">
-        <v>518560</v>
+        <v>861409</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -2823,10 +2517,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2838,10 +2532,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2853,10 +2547,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2876,10 +2570,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D12" s="7">
-        <v>224676</v>
+        <v>215291</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>69</v>
@@ -2891,10 +2585,10 @@
         <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="I12" s="7">
-        <v>511371</v>
+        <v>380363</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>72</v>
@@ -2906,10 +2600,10 @@
         <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>678</v>
+        <v>575</v>
       </c>
       <c r="N12" s="7">
-        <v>736046</v>
+        <v>595654</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>75</v>
@@ -2927,10 +2621,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>155226</v>
+        <v>132180</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>78</v>
@@ -2939,37 +2633,37 @@
         <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>177512</v>
+        <v>173129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="N13" s="7">
-        <v>332737</v>
+        <v>305310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,49 +2672,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>318</v>
       </c>
       <c r="D14" s="7">
-        <v>581899</v>
+        <v>331037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>279511</v>
+        <v>130349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>806</v>
+        <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>861409</v>
+        <v>461386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3044,10 +2738,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3059,10 +2753,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3076,55 +2770,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>215291</v>
+        <v>265953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>380</v>
+        <v>519</v>
       </c>
       <c r="I16" s="7">
-        <v>380363</v>
+        <v>546495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>575</v>
+        <v>797</v>
       </c>
       <c r="N16" s="7">
-        <v>595654</v>
+        <v>812447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,49 +2827,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D17" s="7">
-        <v>132180</v>
+        <v>147621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I17" s="7">
-        <v>173129</v>
+        <v>187062</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="N17" s="7">
-        <v>305310</v>
+        <v>334683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,49 +2878,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="D18" s="7">
-        <v>331037</v>
+        <v>528649</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="I18" s="7">
-        <v>130349</v>
+        <v>305055</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>453</v>
+        <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>461386</v>
+        <v>833704</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +2929,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3250,10 +2944,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3265,10 +2959,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N19" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3282,16 +2976,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>278</v>
+        <v>827</v>
       </c>
       <c r="D20" s="7">
-        <v>265953</v>
+        <v>853552</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
@@ -3303,10 +2997,10 @@
         <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>519</v>
+        <v>1720</v>
       </c>
       <c r="I20" s="7">
-        <v>546495</v>
+        <v>1786962</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>127</v>
@@ -3318,10 +3012,10 @@
         <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>797</v>
+        <v>2547</v>
       </c>
       <c r="N20" s="7">
-        <v>812447</v>
+        <v>2640514</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>130</v>
@@ -3339,49 +3033,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>160</v>
+        <v>541</v>
       </c>
       <c r="D21" s="7">
-        <v>147621</v>
+        <v>542087</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>702</v>
+      </c>
+      <c r="I21" s="7">
+        <v>696715</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>184</v>
-      </c>
-      <c r="I21" s="7">
-        <v>187062</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1238802</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M21" s="7">
-        <v>344</v>
-      </c>
-      <c r="N21" s="7">
-        <v>334683</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,49 +3084,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>556</v>
+        <v>1846</v>
       </c>
       <c r="D22" s="7">
-        <v>528649</v>
+        <v>1880904</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>875</v>
+      </c>
+      <c r="I22" s="7">
+        <v>895521</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H22" s="7">
-        <v>294</v>
-      </c>
-      <c r="I22" s="7">
-        <v>305055</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2721</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2776425</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="7">
-        <v>850</v>
-      </c>
-      <c r="N22" s="7">
-        <v>833704</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3456,10 +3150,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3471,10 +3165,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3487,222 +3181,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>827</v>
-      </c>
-      <c r="D24" s="7">
-        <v>853552</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1720</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1786962</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2547</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2640514</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>541</v>
-      </c>
-      <c r="D25" s="7">
-        <v>542088</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>702</v>
-      </c>
-      <c r="I25" s="7">
-        <v>696715</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1243</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1238802</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1846</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1880904</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7">
-        <v>875</v>
-      </c>
-      <c r="I26" s="7">
-        <v>895521</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2721</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2776424</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3715,8 +3202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD88658C-BBE5-4E35-8163-9A9C554CF796}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8022F7-176E-42B1-938E-B753BD54B725}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3732,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3833,49 +3320,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="D4" s="7">
-        <v>31914</v>
+        <v>180120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="I4" s="7">
-        <v>58363</v>
+        <v>418881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="N4" s="7">
-        <v>90277</v>
+        <v>599001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,49 +3371,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7">
-        <v>18334</v>
+        <v>95221</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>24435</v>
+        <v>101729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="7">
         <v>191</v>
       </c>
-      <c r="M5" s="7">
-        <v>43</v>
-      </c>
       <c r="N5" s="7">
-        <v>42769</v>
+        <v>196950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,49 +3422,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="D6" s="7">
-        <v>65517</v>
+        <v>428128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>29107</v>
+        <v>176440</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
-        <v>96</v>
+        <v>574</v>
       </c>
       <c r="N6" s="7">
-        <v>94623</v>
+        <v>604568</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,10 +3473,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4001,10 +3488,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4016,10 +3503,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N7" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4039,49 +3526,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="D8" s="7">
-        <v>148206</v>
+        <v>285817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>338</v>
+        <v>547</v>
       </c>
       <c r="I8" s="7">
-        <v>360518</v>
+        <v>602094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>477</v>
+        <v>808</v>
       </c>
       <c r="N8" s="7">
-        <v>508724</v>
+        <v>887912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,49 +3577,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7">
-        <v>76887</v>
+        <v>136686</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="I9" s="7">
-        <v>77294</v>
+        <v>132565</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="N9" s="7">
-        <v>154181</v>
+        <v>269251</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,49 +3628,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>339</v>
+        <v>550</v>
       </c>
       <c r="D10" s="7">
-        <v>362611</v>
+        <v>595444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>147333</v>
+        <v>297525</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>478</v>
+        <v>822</v>
       </c>
       <c r="N10" s="7">
-        <v>509944</v>
+        <v>892969</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,10 +3679,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4207,10 +3694,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4222,10 +3709,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N11" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4245,49 +3732,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="D12" s="7">
-        <v>285817</v>
+        <v>207567</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
-        <v>547</v>
+        <v>405</v>
       </c>
       <c r="I12" s="7">
-        <v>602094</v>
+        <v>444219</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
-        <v>808</v>
+        <v>592</v>
       </c>
       <c r="N12" s="7">
-        <v>887912</v>
+        <v>651787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,49 +3783,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7">
-        <v>136686</v>
+        <v>89442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>132565</v>
+        <v>123211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="N13" s="7">
-        <v>269251</v>
+        <v>212653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,49 +3834,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>550</v>
+        <v>421</v>
       </c>
       <c r="D14" s="7">
-        <v>595444</v>
+        <v>460614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>272</v>
+        <v>183</v>
       </c>
       <c r="I14" s="7">
-        <v>297525</v>
+        <v>208742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>822</v>
+        <v>604</v>
       </c>
       <c r="N14" s="7">
-        <v>892969</v>
+        <v>669357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4413,10 +3900,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>1032184</v>
+        <v>776172</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4428,10 +3915,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1876</v>
+        <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>2050131</v>
+        <v>1533796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4445,55 +3932,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="D16" s="7">
-        <v>207567</v>
+        <v>270218</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="I16" s="7">
-        <v>444219</v>
+        <v>560425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
-        <v>592</v>
+        <v>791</v>
       </c>
       <c r="N16" s="7">
-        <v>651787</v>
+        <v>830643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,49 +3989,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>89442</v>
+        <v>117141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>123211</v>
+        <v>119278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>212653</v>
+        <v>236419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,49 +4040,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="D18" s="7">
-        <v>460614</v>
+        <v>560381</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="I18" s="7">
-        <v>208742</v>
+        <v>371231</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
-        <v>604</v>
+        <v>891</v>
       </c>
       <c r="N18" s="7">
-        <v>669357</v>
+        <v>931612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,10 +4091,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4619,10 +4106,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I19" s="7">
-        <v>776172</v>
+        <v>1050934</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4634,10 +4121,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N19" s="7">
-        <v>1533796</v>
+        <v>1998674</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4651,55 +4138,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>255</v>
+        <v>872</v>
       </c>
       <c r="D20" s="7">
-        <v>270218</v>
+        <v>943722</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>536</v>
+        <v>1878</v>
       </c>
       <c r="I20" s="7">
-        <v>560425</v>
+        <v>2025620</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>791</v>
+        <v>2750</v>
       </c>
       <c r="N20" s="7">
-        <v>830643</v>
+        <v>2969342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,49 +4195,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="D21" s="7">
-        <v>117141</v>
+        <v>438489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>450</v>
       </c>
       <c r="I21" s="7">
-        <v>119278</v>
+        <v>476784</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>864</v>
       </c>
       <c r="N21" s="7">
-        <v>236419</v>
+        <v>915273</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,49 +4246,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>542</v>
+        <v>1923</v>
       </c>
       <c r="D22" s="7">
-        <v>560381</v>
+        <v>2044567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
-        <v>349</v>
+        <v>968</v>
       </c>
       <c r="I22" s="7">
-        <v>371231</v>
+        <v>1053937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
-        <v>891</v>
+        <v>2891</v>
       </c>
       <c r="N22" s="7">
-        <v>931612</v>
+        <v>3098505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4825,10 +4312,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1002</v>
+        <v>3296</v>
       </c>
       <c r="I23" s="7">
-        <v>1050934</v>
+        <v>3556341</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4840,10 +4327,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1912</v>
+        <v>6505</v>
       </c>
       <c r="N23" s="7">
-        <v>1998674</v>
+        <v>6983120</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4856,222 +4343,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>872</v>
-      </c>
-      <c r="D24" s="7">
-        <v>943722</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1878</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2025620</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2750</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2969342</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>414</v>
-      </c>
-      <c r="D25" s="7">
-        <v>438489</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="7">
-        <v>450</v>
-      </c>
-      <c r="I25" s="7">
-        <v>476784</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M25" s="7">
-        <v>864</v>
-      </c>
-      <c r="N25" s="7">
-        <v>915273</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1923</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2044567</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H26" s="7">
-        <v>968</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1053937</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2891</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3098505</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3556341</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6983120</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5084,8 +4364,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BD4E86-E038-4B81-9348-604B239876D6}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6311121D-98D5-469E-B735-BA8CCA4C6CBD}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5101,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5202,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>6449</v>
+        <v>65480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="I4" s="7">
-        <v>24741</v>
+        <v>237724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="N4" s="7">
-        <v>31190</v>
+        <v>303204</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>24881</v>
+        <v>179589</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="I5" s="7">
-        <v>53257</v>
+        <v>249590</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>78138</v>
+        <v>429179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +4584,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D6" s="7">
-        <v>85216</v>
+        <v>429730</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="I6" s="7">
-        <v>35362</v>
+        <v>185525</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>603</v>
       </c>
       <c r="N6" s="7">
-        <v>120577</v>
+        <v>615255</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +4635,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5370,10 +4650,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5385,10 +4665,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5408,49 +4688,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D8" s="7">
-        <v>59031</v>
+        <v>133764</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="I8" s="7">
-        <v>212983</v>
+        <v>303055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="N8" s="7">
-        <v>272014</v>
+        <v>436819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +4739,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="D9" s="7">
-        <v>154708</v>
+        <v>313143</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>368</v>
+        <v>93</v>
       </c>
       <c r="H9" s="7">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="I9" s="7">
-        <v>196333</v>
+        <v>413549</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
-        <v>345</v>
+        <v>689</v>
       </c>
       <c r="N9" s="7">
-        <v>351041</v>
+        <v>726692</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,49 +4790,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>532</v>
+      </c>
+      <c r="D10" s="7">
+        <v>575524</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="7">
+        <v>309</v>
+      </c>
+      <c r="I10" s="7">
+        <v>324147</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="7">
-        <v>344515</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>150163</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
-        <v>483</v>
+        <v>841</v>
       </c>
       <c r="N10" s="7">
-        <v>494678</v>
+        <v>899671</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,10 +4841,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5576,10 +4856,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1040750</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5591,10 +4871,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>1926</v>
       </c>
       <c r="N11" s="7">
-        <v>1117733</v>
+        <v>2063181</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5614,49 +4894,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>133764</v>
+        <v>125777</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>303055</v>
+        <v>280609</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="N12" s="7">
-        <v>436819</v>
+        <v>406385</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,49 +4945,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="D13" s="7">
-        <v>313143</v>
+        <v>207088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="I13" s="7">
-        <v>413549</v>
+        <v>268827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
-        <v>689</v>
+        <v>454</v>
       </c>
       <c r="N13" s="7">
-        <v>726692</v>
+        <v>475915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,49 +4996,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>532</v>
+        <v>387</v>
       </c>
       <c r="D14" s="7">
-        <v>575524</v>
+        <v>426687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="I14" s="7">
-        <v>324147</v>
+        <v>234487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
-        <v>841</v>
+        <v>609</v>
       </c>
       <c r="N14" s="7">
-        <v>899671</v>
+        <v>661174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,10 +5047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5782,10 +5062,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>975</v>
+        <v>735</v>
       </c>
       <c r="I15" s="7">
-        <v>1040750</v>
+        <v>783922</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5797,10 +5077,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1926</v>
+        <v>1431</v>
       </c>
       <c r="N15" s="7">
-        <v>2063181</v>
+        <v>1543474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5814,55 +5094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D16" s="7">
-        <v>125777</v>
+        <v>106487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="I16" s="7">
-        <v>280609</v>
+        <v>300543</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N16" s="7">
-        <v>406385</v>
+        <v>407030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,49 +5151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D17" s="7">
-        <v>207088</v>
+        <v>253694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="I17" s="7">
-        <v>268827</v>
+        <v>330987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>454</v>
+        <v>573</v>
       </c>
       <c r="N17" s="7">
-        <v>475915</v>
+        <v>584681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,49 +5202,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>387</v>
+        <v>569</v>
       </c>
       <c r="D18" s="7">
-        <v>426687</v>
+        <v>575328</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>379</v>
       </c>
       <c r="I18" s="7">
-        <v>234487</v>
+        <v>408971</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
-        <v>609</v>
+        <v>948</v>
       </c>
       <c r="N18" s="7">
-        <v>661174</v>
+        <v>984300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,10 +5253,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>930</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>935509</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5988,10 +5268,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>735</v>
+        <v>956</v>
       </c>
       <c r="I19" s="7">
-        <v>783922</v>
+        <v>1040502</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6003,10 +5283,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1431</v>
+        <v>1886</v>
       </c>
       <c r="N19" s="7">
-        <v>1543474</v>
+        <v>1976011</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6020,55 +5300,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>101</v>
+        <v>399</v>
       </c>
       <c r="D20" s="7">
-        <v>106487</v>
+        <v>431508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
-        <v>264</v>
+        <v>1023</v>
       </c>
       <c r="I20" s="7">
-        <v>300543</v>
+        <v>1121931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
-        <v>365</v>
+        <v>1422</v>
       </c>
       <c r="N20" s="7">
-        <v>407030</v>
+        <v>1553439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,49 +5357,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>260</v>
+        <v>931</v>
       </c>
       <c r="D21" s="7">
-        <v>253694</v>
+        <v>953515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>395</v>
       </c>
       <c r="H21" s="7">
-        <v>313</v>
+        <v>1207</v>
       </c>
       <c r="I21" s="7">
-        <v>330987</v>
+        <v>1262953</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>396</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
-        <v>573</v>
+        <v>2138</v>
       </c>
       <c r="N21" s="7">
-        <v>584681</v>
+        <v>2216468</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,49 +5408,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>569</v>
+        <v>1899</v>
       </c>
       <c r="D22" s="7">
-        <v>575328</v>
+        <v>2007270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>210</v>
       </c>
       <c r="H22" s="7">
-        <v>379</v>
+        <v>1102</v>
       </c>
       <c r="I22" s="7">
-        <v>408971</v>
+        <v>1153130</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
-        <v>948</v>
+        <v>3001</v>
       </c>
       <c r="N22" s="7">
-        <v>984300</v>
+        <v>3160400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,10 +5459,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>930</v>
+        <v>3229</v>
       </c>
       <c r="D23" s="7">
-        <v>935509</v>
+        <v>3392292</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6194,10 +5474,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>956</v>
+        <v>3332</v>
       </c>
       <c r="I23" s="7">
-        <v>1040502</v>
+        <v>3538014</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6209,10 +5489,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1886</v>
+        <v>6561</v>
       </c>
       <c r="N23" s="7">
-        <v>1976011</v>
+        <v>6930306</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6225,222 +5505,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>399</v>
-      </c>
-      <c r="D24" s="7">
-        <v>431508</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1121931</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1422</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1553439</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>931</v>
-      </c>
-      <c r="D25" s="7">
-        <v>953515</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1207</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1262953</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2138</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2216468</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1899</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2007270</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1102</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1153130</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3001</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3160400</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3229</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3392292</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3332</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3538014</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6561</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6930306</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6453,8 +5526,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA63FDF-2384-46C9-857B-8970333625E7}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F638FE-E9AD-4F25-BE67-DF53E67C41FD}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6470,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6571,49 +5644,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7">
-        <v>24344</v>
+        <v>100353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>484</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
-        <v>123</v>
+        <v>503</v>
       </c>
       <c r="I4" s="7">
-        <v>61768</v>
+        <v>245154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="M4" s="7">
-        <v>152</v>
+        <v>643</v>
       </c>
       <c r="N4" s="7">
-        <v>86112</v>
+        <v>345507</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>489</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,49 +5695,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="D5" s="7">
-        <v>23255</v>
+        <v>164897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="I5" s="7">
-        <v>35638</v>
+        <v>226108</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
-        <v>93</v>
+        <v>605</v>
       </c>
       <c r="N5" s="7">
-        <v>58893</v>
+        <v>391006</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,49 +5746,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="D6" s="7">
-        <v>53306</v>
+        <v>368395</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="I6" s="7">
-        <v>33328</v>
+        <v>203894</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>718</v>
       </c>
       <c r="N6" s="7">
-        <v>86633</v>
+        <v>572288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>506</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,10 +5797,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D7" s="7">
-        <v>100905</v>
+        <v>633645</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6739,10 +5812,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>675156</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6754,10 +5827,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N7" s="7">
-        <v>231638</v>
+        <v>1308801</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6777,49 +5850,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>80595</v>
+        <v>128740</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="H8" s="7">
-        <v>380</v>
+        <v>478</v>
       </c>
       <c r="I8" s="7">
-        <v>201995</v>
+        <v>268163</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
-        <v>491</v>
+        <v>643</v>
       </c>
       <c r="N8" s="7">
-        <v>282591</v>
+        <v>396902</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,49 +5901,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="D9" s="7">
-        <v>149093</v>
+        <v>245695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>515</v>
+        <v>135</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>516</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="H9" s="7">
-        <v>343</v>
+        <v>583</v>
       </c>
       <c r="I9" s="7">
-        <v>208338</v>
+        <v>369086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>518</v>
+        <v>104</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>519</v>
+        <v>76</v>
       </c>
       <c r="M9" s="7">
-        <v>512</v>
+        <v>844</v>
       </c>
       <c r="N9" s="7">
-        <v>357431</v>
+        <v>614781</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>520</v>
+        <v>443</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>521</v>
+        <v>444</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>522</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,49 +5952,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>537</v>
       </c>
       <c r="D10" s="7">
-        <v>319324</v>
+        <v>817315</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>523</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>524</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>525</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
-        <v>272</v>
+        <v>453</v>
       </c>
       <c r="I10" s="7">
-        <v>181999</v>
+        <v>319405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>450</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>528</v>
+        <v>451</v>
       </c>
       <c r="M10" s="7">
-        <v>603</v>
+        <v>990</v>
       </c>
       <c r="N10" s="7">
-        <v>501323</v>
+        <v>1136720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>529</v>
+        <v>452</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>531</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D11" s="7">
-        <v>549012</v>
+        <v>1191750</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6945,10 +6018,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>995</v>
+        <v>1514</v>
       </c>
       <c r="I11" s="7">
-        <v>592333</v>
+        <v>956654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6960,10 +6033,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1606</v>
+        <v>2477</v>
       </c>
       <c r="N11" s="7">
-        <v>1141345</v>
+        <v>2148404</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6983,49 +6056,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="D12" s="7">
-        <v>136088</v>
+        <v>107264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="H12" s="7">
-        <v>478</v>
+        <v>354</v>
       </c>
       <c r="I12" s="7">
-        <v>296035</v>
+        <v>242438</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>432122</v>
+        <v>349702</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>461</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>537</v>
+        <v>462</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>538</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,49 +6107,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D13" s="7">
-        <v>261924</v>
+        <v>198219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>464</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>465</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>540</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>583</v>
+        <v>332</v>
       </c>
       <c r="I13" s="7">
-        <v>410345</v>
+        <v>224535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>541</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>542</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>543</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
-        <v>844</v>
+        <v>515</v>
       </c>
       <c r="N13" s="7">
-        <v>672268</v>
+        <v>422754</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>545</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>546</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,49 +6158,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>537</v>
+        <v>368</v>
       </c>
       <c r="D14" s="7">
-        <v>640096</v>
+        <v>396836</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="I14" s="7">
-        <v>351403</v>
+        <v>464113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
-        <v>990</v>
+        <v>726</v>
       </c>
       <c r="N14" s="7">
-        <v>991499</v>
+        <v>860949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,10 +6209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D15" s="7">
-        <v>1038108</v>
+        <v>702319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7151,10 +6224,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1514</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>1057782</v>
+        <v>931086</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7166,10 +6239,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2477</v>
+        <v>1717</v>
       </c>
       <c r="N15" s="7">
-        <v>2095890</v>
+        <v>1633405</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7183,55 +6256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7">
-        <v>111126</v>
+        <v>165550</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="I16" s="7">
-        <v>236947</v>
+        <v>313672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>561</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
-        <v>476</v>
+        <v>688</v>
       </c>
       <c r="N16" s="7">
-        <v>348074</v>
+        <v>479222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,49 +6313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="D17" s="7">
-        <v>205519</v>
+        <v>219118</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>565</v>
+        <v>489</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>490</v>
       </c>
       <c r="H17" s="7">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="I17" s="7">
-        <v>246859</v>
+        <v>302690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
-        <v>515</v>
+        <v>702</v>
       </c>
       <c r="N17" s="7">
-        <v>452379</v>
+        <v>521808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,49 +6364,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>368</v>
+        <v>583</v>
       </c>
       <c r="D18" s="7">
-        <v>409634</v>
+        <v>541077</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="H18" s="7">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="I18" s="7">
-        <v>387805</v>
+        <v>473711</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>501</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>502</v>
       </c>
       <c r="M18" s="7">
-        <v>726</v>
+        <v>1172</v>
       </c>
       <c r="N18" s="7">
-        <v>797440</v>
+        <v>1014787</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>503</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>504</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>579</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,10 +6415,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="D19" s="7">
-        <v>726280</v>
+        <v>925745</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7357,10 +6430,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1044</v>
+        <v>1557</v>
       </c>
       <c r="I19" s="7">
-        <v>871612</v>
+        <v>1090072</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7372,10 +6445,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1717</v>
+        <v>2562</v>
       </c>
       <c r="N19" s="7">
-        <v>1597892</v>
+        <v>2015817</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7389,55 +6462,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>605</v>
       </c>
       <c r="D20" s="7">
-        <v>174810</v>
+        <v>501907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="H20" s="7">
+        <v>1845</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1069426</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="I20" s="7">
-        <v>349822</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
-        <v>688</v>
+        <v>2450</v>
       </c>
       <c r="N20" s="7">
-        <v>524632</v>
+        <v>1571333</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,49 +6519,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>244</v>
+        <v>883</v>
       </c>
       <c r="D21" s="7">
-        <v>226301</v>
+        <v>827929</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>590</v>
+        <v>516</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>591</v>
+        <v>415</v>
       </c>
       <c r="H21" s="7">
-        <v>458</v>
+        <v>1783</v>
       </c>
       <c r="I21" s="7">
-        <v>338872</v>
+        <v>1122419</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>592</v>
+        <v>517</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>594</v>
+        <v>519</v>
       </c>
       <c r="M21" s="7">
-        <v>702</v>
+        <v>2666</v>
       </c>
       <c r="N21" s="7">
-        <v>565173</v>
+        <v>1950349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>595</v>
+        <v>520</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>596</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,49 +6570,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>583</v>
+        <v>1881</v>
       </c>
       <c r="D22" s="7">
-        <v>563167</v>
+        <v>2123623</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>597</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>598</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
-        <v>589</v>
+        <v>1725</v>
       </c>
       <c r="I22" s="7">
-        <v>456229</v>
+        <v>1461122</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>601</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
-        <v>1172</v>
+        <v>3606</v>
       </c>
       <c r="N22" s="7">
-        <v>1019395</v>
+        <v>3584745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,10 +6621,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1005</v>
+        <v>3369</v>
       </c>
       <c r="D23" s="7">
-        <v>964278</v>
+        <v>3453459</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7563,10 +6636,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1557</v>
+        <v>5353</v>
       </c>
       <c r="I23" s="7">
-        <v>1144923</v>
+        <v>3652968</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7578,10 +6651,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2562</v>
+        <v>8722</v>
       </c>
       <c r="N23" s="7">
-        <v>2109201</v>
+        <v>7106427</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7594,222 +6667,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>605</v>
-      </c>
-      <c r="D24" s="7">
-        <v>526964</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1845</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1146567</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2450</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1673530</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>883</v>
-      </c>
-      <c r="D25" s="7">
-        <v>866093</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1783</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1240052</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2666</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2106145</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1881</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1985527</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1725</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1410764</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3606</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3396291</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3369</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3378584</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3797383</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8722</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7175966</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
